--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-568588.7442294769</v>
+        <v>-571289.9608809338</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673443</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>227.9187527607133</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>19.72100737961711</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.021495826239311</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>2.323435719766762</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1658156685793</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>188.4722032175292</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>372.3989097578475</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>383.6877278154299</v>
+        <v>268.3915502192481</v>
       </c>
       <c r="G5" t="n">
-        <v>383.6877278154299</v>
+        <v>383.6877278154309</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.6877278154309</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>101.9371997394953</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333229</v>
+        <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951733</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713877</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>140.715756379106</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>138.4793955571874</v>
+        <v>115.4188884360121</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643593</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>111.4855799977434</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>305.5498605309638</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1306,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>112.0810829763002</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>111.747767332745</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>351.6367432828573</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184572</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615221</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>11.06363183220639</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530797</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992738</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>121.8320355298999</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>160.0635677632973</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>35.41770597126519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>126.6321535627869</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.82913822150007</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>101.6969570046978</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>25.78734729249771</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>4.665762779850627</v>
       </c>
     </row>
     <row r="23">
@@ -2324,13 +2324,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>101.696957004697</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797025</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>33.45472478221009</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.0656089242822</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881292</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053461</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187881</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>40.15381658332852</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3503,10 +3503,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>114.2173032139416</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.55695577161238</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722636</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0.0127623547345479</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.4649598217087</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703267</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300.438579740743</v>
+        <v>634.167062227511</v>
       </c>
       <c r="C2" t="n">
-        <v>300.438579740743</v>
+        <v>634.167062227511</v>
       </c>
       <c r="D2" t="n">
-        <v>300.438579740743</v>
+        <v>634.167062227511</v>
       </c>
       <c r="E2" t="n">
-        <v>300.438579740743</v>
+        <v>634.167062227511</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356496</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1034.935310531664</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>820.5012543667924</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>566.8162363079211</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>566.8162363079211</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W2" t="n">
-        <v>566.8162363079211</v>
+        <v>634.167062227511</v>
       </c>
       <c r="X2" t="n">
-        <v>566.8162363079211</v>
+        <v>634.167062227511</v>
       </c>
       <c r="Y2" t="n">
-        <v>300.438579740743</v>
+        <v>634.167062227511</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171.0633340272701</v>
+        <v>214.3969786487511</v>
       </c>
       <c r="C3" t="n">
-        <v>171.0633340272701</v>
+        <v>214.3969786487511</v>
       </c>
       <c r="D3" t="n">
-        <v>22.12892436601879</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>22.12892436601879</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>22.12892436601879</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>22.12892436601879</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>22.12892436601879</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>659.7474918534679</v>
       </c>
       <c r="V3" t="n">
-        <v>801.3675279810725</v>
+        <v>424.5953836217251</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528709</v>
+        <v>422.248478854284</v>
       </c>
       <c r="X3" t="n">
-        <v>339.2786710473381</v>
+        <v>214.3969786487511</v>
       </c>
       <c r="Y3" t="n">
-        <v>339.2786710473381</v>
+        <v>214.3969786487511</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339.6957333972995</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>170.7595504693926</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>170.7595504693926</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>170.7595504693926</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>170.7595504693926</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>170.7595504693926</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>593.383997210649</v>
       </c>
       <c r="W4" t="n">
-        <v>788.477863438847</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>560.4883125408296</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>339.6957333972995</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1181.982255991605</v>
+        <v>1002.433312088523</v>
       </c>
       <c r="C5" t="n">
-        <v>1181.982255991605</v>
+        <v>1002.433312088523</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.982255991605</v>
+        <v>1002.433312088523</v>
       </c>
       <c r="E5" t="n">
-        <v>805.8217410846887</v>
+        <v>1002.433312088523</v>
       </c>
       <c r="F5" t="n">
-        <v>418.2583796549615</v>
+        <v>731.3307361094845</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523439</v>
+        <v>343.7673746797563</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523439</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523439</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275101</v>
+        <v>93.76641159275141</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245552</v>
+        <v>239.0325989245562</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825615</v>
+        <v>456.1499114825634</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748834</v>
+        <v>729.4041931748859</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202376</v>
+        <v>1011.693823202379</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798409</v>
+        <v>1264.916654798413</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189406</v>
+        <v>1446.535482189409</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261719</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261719</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261719</v>
+        <v>1389.996673518251</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261719</v>
+        <v>1389.996673518251</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261719</v>
+        <v>1389.996673518251</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261719</v>
+        <v>1389.996673518251</v>
       </c>
       <c r="W5" t="n">
-        <v>1181.982255991605</v>
+        <v>1389.996673518251</v>
       </c>
       <c r="X5" t="n">
-        <v>1181.982255991605</v>
+        <v>1389.996673518251</v>
       </c>
       <c r="Y5" t="n">
-        <v>1181.982255991605</v>
+        <v>1002.433312088523</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>609.2371191145605</v>
+        <v>860.4975310592838</v>
       </c>
       <c r="C6" t="n">
-        <v>434.7840898334335</v>
+        <v>757.5306626355512</v>
       </c>
       <c r="D6" t="n">
-        <v>434.7840898334335</v>
+        <v>608.5962529742999</v>
       </c>
       <c r="E6" t="n">
-        <v>275.546634827978</v>
+        <v>449.3587979688443</v>
       </c>
       <c r="F6" t="n">
-        <v>129.012076854863</v>
+        <v>302.8242399957293</v>
       </c>
       <c r="G6" t="n">
-        <v>129.012076854863</v>
+        <v>165.6519402584159</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523439</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523439</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563393</v>
+        <v>49.44206107563416</v>
       </c>
       <c r="K6" t="n">
-        <v>159.638568016944</v>
+        <v>388.9600665101427</v>
       </c>
       <c r="L6" t="n">
-        <v>362.657505002904</v>
+        <v>583.4554103414946</v>
       </c>
       <c r="M6" t="n">
-        <v>608.9812656736494</v>
+        <v>829.7791710122403</v>
       </c>
       <c r="N6" t="n">
-        <v>876.2331282458713</v>
+        <v>1097.031033584463</v>
       </c>
       <c r="O6" t="n">
-        <v>1098.496575411389</v>
+        <v>1319.294480749981</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948665</v>
+        <v>1478.347425948669</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261719</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261719</v>
+        <v>1530.346686757972</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655814</v>
+        <v>1530.346686757972</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207499</v>
+        <v>1530.346686757972</v>
       </c>
       <c r="U6" t="n">
-        <v>1052.240727551836</v>
+        <v>1530.346686757972</v>
       </c>
       <c r="V6" t="n">
-        <v>817.0886193200934</v>
+        <v>1530.346686757972</v>
       </c>
       <c r="W6" t="n">
-        <v>817.0886193200934</v>
+        <v>1276.10933002977</v>
       </c>
       <c r="X6" t="n">
-        <v>609.2371191145605</v>
+        <v>1068.257829824238</v>
       </c>
       <c r="Y6" t="n">
-        <v>609.2371191145605</v>
+        <v>860.4975310592838</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>486.8675315000561</v>
+        <v>296.0941824389587</v>
       </c>
       <c r="C7" t="n">
-        <v>486.8675315000561</v>
+        <v>296.0941824389587</v>
       </c>
       <c r="D7" t="n">
-        <v>346.9893541695637</v>
+        <v>179.509446645007</v>
       </c>
       <c r="E7" t="n">
-        <v>199.0762605871707</v>
+        <v>179.509446645007</v>
       </c>
       <c r="F7" t="n">
-        <v>199.0762605871707</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="G7" t="n">
-        <v>30.69501822523439</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523439</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523439</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523439</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223264</v>
+        <v>157.4322756223266</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830384</v>
+        <v>375.1387655830388</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388145</v>
+        <v>615.0688576388151</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974815</v>
+        <v>854.7285647974822</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.26700593402</v>
+        <v>1212.267005934021</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495182</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495182</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="S7" t="n">
-        <v>1030.691890529572</v>
+        <v>1030.691890529573</v>
       </c>
       <c r="T7" t="n">
-        <v>1030.691890529572</v>
+        <v>806.0266324061173</v>
       </c>
       <c r="U7" t="n">
-        <v>741.5520197059429</v>
+        <v>516.8867615824888</v>
       </c>
       <c r="V7" t="n">
-        <v>486.8675315000561</v>
+        <v>516.8867615824888</v>
       </c>
       <c r="W7" t="n">
-        <v>486.8675315000561</v>
+        <v>516.8867615824888</v>
       </c>
       <c r="X7" t="n">
-        <v>486.8675315000561</v>
+        <v>516.8867615824888</v>
       </c>
       <c r="Y7" t="n">
-        <v>486.8675315000561</v>
+        <v>296.0941824389587</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1202.59552936621</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C8" t="n">
-        <v>1202.59552936621</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4817,37 +4817,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2240.981990038562</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188881</v>
+        <v>1909.919102694992</v>
       </c>
       <c r="W8" t="n">
-        <v>1589.195369430331</v>
+        <v>1557.150447424877</v>
       </c>
       <c r="X8" t="n">
-        <v>1589.195369430331</v>
+        <v>1183.684689163798</v>
       </c>
       <c r="Y8" t="n">
-        <v>1589.195369430331</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735143</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049862</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>535.0593816855418</v>
+        <v>831.7113734044286</v>
       </c>
       <c r="C10" t="n">
-        <v>366.1231987576349</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="D10" t="n">
-        <v>366.1231987576349</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4969,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1523.232904946922</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1234.11456745076</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1234.11456745076</v>
+        <v>1523.569587415159</v>
       </c>
       <c r="W10" t="n">
-        <v>944.6973974137989</v>
+        <v>1234.152417378198</v>
       </c>
       <c r="X10" t="n">
-        <v>716.7078465157815</v>
+        <v>1234.152417378198</v>
       </c>
       <c r="Y10" t="n">
-        <v>716.7078465157815</v>
+        <v>1013.359838234668</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2274.025764774246</v>
+        <v>1947.664647156212</v>
       </c>
       <c r="C11" t="n">
-        <v>1905.063247833834</v>
+        <v>1578.7021302158</v>
       </c>
       <c r="D11" t="n">
-        <v>1546.797549227083</v>
+        <v>1220.43643160905</v>
       </c>
       <c r="E11" t="n">
-        <v>1161.009296628839</v>
+        <v>1220.43643160905</v>
       </c>
       <c r="F11" t="n">
-        <v>750.0233918392314</v>
+        <v>809.4505268194425</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592064</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706881</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656944</v>
+        <v>695.1615405656956</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625327</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087828</v>
+        <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484039</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535292</v>
+        <v>3033.988513535295</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479991</v>
+        <v>3493.127967479993</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464057</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796032</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345373</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="T11" t="n">
-        <v>3776.999350345373</v>
+        <v>3672.904689377399</v>
       </c>
       <c r="U11" t="n">
-        <v>3776.999350345373</v>
+        <v>3419.410747498928</v>
       </c>
       <c r="V11" t="n">
-        <v>3776.999350345373</v>
+        <v>3088.347860155357</v>
       </c>
       <c r="W11" t="n">
-        <v>3424.230695075259</v>
+        <v>2735.579204885243</v>
       </c>
       <c r="X11" t="n">
-        <v>3050.764936814179</v>
+        <v>2724.403819196145</v>
       </c>
       <c r="Y11" t="n">
-        <v>2660.625604838368</v>
+        <v>2334.264487220334</v>
       </c>
     </row>
     <row r="12">
@@ -5106,7 +5106,7 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
@@ -5115,25 +5115,25 @@
         <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592064</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J12" t="n">
-        <v>193.841091987041</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046649</v>
+        <v>354.473570333545</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929972</v>
+        <v>773.1706109914965</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749525</v>
+        <v>1281.127176948024</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450734</v>
+        <v>1816.936486649234</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783257</v>
+        <v>2284.877530981757</v>
       </c>
       <c r="P12" t="n">
         <v>2371.16628502803</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.452541682644</v>
+        <v>539.8386901850358</v>
       </c>
       <c r="C13" t="n">
-        <v>925.5163587547371</v>
+        <v>539.8386901850358</v>
       </c>
       <c r="D13" t="n">
-        <v>775.3997193424013</v>
+        <v>539.8386901850359</v>
       </c>
       <c r="E13" t="n">
-        <v>627.4866257600082</v>
+        <v>391.9255966026428</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620978</v>
+        <v>245.0356491047324</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.169024664814</v>
+        <v>364.1690246648144</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344803</v>
+        <v>710.5788654344809</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742806</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742806</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.362968742806</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>2137.362968742806</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>2014.300306591392</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1724.883136554431</v>
+        <v>942.2797341588057</v>
       </c>
       <c r="X13" t="n">
-        <v>1496.893585656414</v>
+        <v>942.2797341588057</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.101006512884</v>
+        <v>721.4871550152756</v>
       </c>
     </row>
     <row r="14">
@@ -5261,34 +5261,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327633</v>
+        <v>835.583792693556</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048564</v>
+        <v>666.6476097656486</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925206</v>
+        <v>516.5309703533128</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101275</v>
+        <v>368.6178767709197</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>221.7279292730093</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580259</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.3616186032</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947398</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741511</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.18473370455</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806533</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663003</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="17">
@@ -5504,25 +5504,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675715</v>
+        <v>363.736961327736</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851784</v>
+        <v>363.736961327736</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,13 +5762,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>808.8888553856866</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5938,22 +5938,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159263</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273906</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2529.355041543136</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400721</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121652</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2413.170432285098</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2413.170432285098</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2193.56896730804</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1904.493740652237</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1649.80925244635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138418</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703119</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6446,28 +6446,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6482,25 +6482,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591808</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="32">
@@ -6692,43 +6692,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6850,19 +6850,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,25 +6880,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y34" t="n">
         <v>753.3092412490405</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168627</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273906</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557269</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>559.04249532782</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>408.9258559154844</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330914</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330914</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127514</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859666</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273906</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311363</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032294</v>
+        <v>580.899304487669</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908937</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908937</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908937</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2404.986360578632</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2404.986360578632</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2185.384895601573</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1896.309668945771</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1641.625180739884</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.425880661376</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273909</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273909</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273909</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>762.5477693179088</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>762.5477693179088</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>612.431129905573</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5180363231798</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6280888252696</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7588,10 +7588,10 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
         <v>2264.108249235165</v>
@@ -7609,10 +7609,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,28 +7658,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273906</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
         <v>344.9174178121644</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637034</v>
+        <v>34.43939438637017</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.6378772658568</v>
       </c>
       <c r="L6" t="n">
-        <v>8.609690055160144</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>223.028187210695</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>84.94186588374697</v>
       </c>
       <c r="P9" t="n">
-        <v>265.030432851515</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>58.83286363040861</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>358.6674688462626</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905247</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>130.3056077939281</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>126.4594305732937</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>110.0033420516661</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>38.89198472948192</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462249</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.0028419604372</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823348</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>141.4594738061301</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.9188905722442</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>32.9205219279116</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>211.9838267404995</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>34.39816980427074</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.81829093850928</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5113759375343</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194166</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1053698.776531211</v>
+        <v>1053698.776531212</v>
       </c>
     </row>
     <row r="6">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="C2" t="n">
         <v>266838.575205892</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>238091.5043891785</v>
+        <v>238091.5043891787</v>
       </c>
       <c r="F2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="G2" t="n">
         <v>262322.644899252</v>
-      </c>
-      <c r="G2" t="n">
-        <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
         <v>262322.6448992519</v>
@@ -26350,10 +26350,10 @@
         <v>262322.6448992519</v>
       </c>
       <c r="O2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="P2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657056</v>
+        <v>132804.2190657067</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929392</v>
+        <v>265413.0723929381</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.157354576</v>
+        <v>313577.1573545771</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704299</v>
+        <v>189308.268770429</v>
       </c>
       <c r="G3" t="n">
         <v>1.767800767993322e-10</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417389</v>
+        <v>30877.42926417413</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049609</v>
+        <v>65018.34502049578</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.4037127304</v>
+        <v>81897.40371273069</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202393</v>
+        <v>49839.57413202366</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>214511.7974947653</v>
+        <v>214511.797494765</v>
       </c>
       <c r="D4" t="n">
-        <v>139134.5471223412</v>
+        <v>139134.5471223413</v>
       </c>
       <c r="E4" t="n">
-        <v>10451.66972713466</v>
+        <v>10451.66972713467</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678118</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26436,28 +26436,28 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678118</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
+        <v>10557.08828678125</v>
+      </c>
+      <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="L4" t="n">
-        <v>10557.08828678118</v>
-      </c>
       <c r="M4" t="n">
-        <v>10557.08828678112</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="N4" t="n">
+        <v>10557.08828678127</v>
+      </c>
+      <c r="O4" t="n">
         <v>10557.08828678119</v>
       </c>
-      <c r="O4" t="n">
-        <v>10557.08828678113</v>
-      </c>
       <c r="P4" t="n">
-        <v>10557.08828678118</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667484</v>
+        <v>72593.65038667491</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738558</v>
+        <v>85137.48506738564</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726629.8745644295</v>
+        <v>-726629.8745644294</v>
       </c>
       <c r="C6" t="n">
-        <v>-153071.0917412537</v>
+        <v>-153071.0917412546</v>
       </c>
       <c r="D6" t="n">
-        <v>-230646.8167492332</v>
+        <v>-230646.8167492321</v>
       </c>
       <c r="E6" t="n">
-        <v>-171074.8077599177</v>
+        <v>-171295.9390738934</v>
       </c>
       <c r="F6" t="n">
-        <v>-38665.24198186625</v>
+        <v>-38699.97990730115</v>
       </c>
       <c r="G6" t="n">
-        <v>150643.0267885634</v>
+        <v>150608.2888631278</v>
       </c>
       <c r="H6" t="n">
-        <v>150643.0267885636</v>
+        <v>150608.2888631279</v>
       </c>
       <c r="I6" t="n">
-        <v>150643.0267885636</v>
+        <v>150608.288863128</v>
       </c>
       <c r="J6" t="n">
-        <v>81643.87236944948</v>
+        <v>81609.13444401385</v>
       </c>
       <c r="K6" t="n">
-        <v>119765.5975243896</v>
+        <v>119730.8595989537</v>
       </c>
       <c r="L6" t="n">
-        <v>85624.68176806753</v>
+        <v>85589.94384263214</v>
       </c>
       <c r="M6" t="n">
-        <v>68745.62307583322</v>
+        <v>68710.88515039723</v>
       </c>
       <c r="N6" t="n">
-        <v>100803.4526565397</v>
+        <v>100768.7147311042</v>
       </c>
       <c r="O6" t="n">
-        <v>150643.0267885636</v>
+        <v>150608.288863128</v>
       </c>
       <c r="P6" t="n">
-        <v>150643.0267885636</v>
+        <v>150608.288863128</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695738</v>
+        <v>717.3319511695745</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154299</v>
+        <v>383.6877278154309</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.220823949008</v>
+        <v>969.2208239490087</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,19 +26817,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000954</v>
+        <v>103.2769374000962</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479656</v>
+        <v>216.7329409479648</v>
       </c>
       <c r="E3" t="n">
-        <v>268.17634509741</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267243</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139236</v>
+        <v>119.9738478139247</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846092</v>
+        <v>256.897104284608</v>
       </c>
       <c r="E4" t="n">
-        <v>328.635991848969</v>
+        <v>328.6359918489699</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506403</v>
+        <v>203.4874641506397</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139236</v>
+        <v>119.9738478139245</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846094</v>
+        <v>256.8971042846082</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848969</v>
+        <v>328.6359918489699</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506403</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139236</v>
+        <v>119.9738478139247</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846092</v>
+        <v>256.897104284608</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848969</v>
+        <v>328.6359918489699</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506403</v>
+        <v>203.4874641506397</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>178.9572929809981</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.0466858196052</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>42.90030817526628</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,19 +27506,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.3715474411528</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>4.216343667277442</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27594,16 +27594,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>98.05079511906177</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>9.531460314414289</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>23.18831792628157</v>
+        <v>138.4844955224633</v>
       </c>
       <c r="G5" t="n">
-        <v>28.73126316234006</v>
+        <v>28.73126316233904</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863706</v>
+        <v>99.30025118863696</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>2.550210840622697</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>70.77129924882043</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951739</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713976</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>85.12411646349577</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>10.13607746102494</v>
+        <v>33.19658458220024</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
         <v>150.7263422083602</v>
@@ -27795,7 +27795,7 @@
         <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643678</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422209</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>139.5596701307186</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>43.69110818644918</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28062,22 +28062,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>108.6676130209118</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>140.389875991083</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-9.701276818911234e-13</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -29044,13 +29044,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29983,13 +29983,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30223,10 +30223,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365119</v>
+        <v>2.883746537365121</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579053</v>
+        <v>29.53316922579056</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817688</v>
+        <v>111.1756383817689</v>
       </c>
       <c r="J5" t="n">
-        <v>244.754382675693</v>
+        <v>244.7543826756932</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023585</v>
+        <v>366.8233736023589</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952464</v>
+        <v>455.0768316952468</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791133</v>
+        <v>506.3606591791137</v>
       </c>
       <c r="N5" t="n">
-        <v>514.554104028402</v>
+        <v>514.5541040284024</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974775</v>
+        <v>485.878849397478</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562761</v>
+        <v>414.6863567562765</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868877</v>
+        <v>311.412183886888</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277618</v>
+        <v>181.146143427762</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020771</v>
+        <v>65.71337422020777</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731581</v>
+        <v>12.62360046731582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892095</v>
+        <v>0.2306997229892097</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270404</v>
+        <v>1.542940423270406</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316417</v>
+        <v>14.90155619316418</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189769</v>
+        <v>53.12316808189775</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862622</v>
+        <v>145.7740335862623</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453793</v>
+        <v>249.1510419453795</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438656</v>
+        <v>335.0143230438659</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874177</v>
+        <v>390.945913387418</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189109</v>
+        <v>401.2930884189113</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348667</v>
+        <v>367.1047769348671</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190651</v>
+        <v>294.6339480190654</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739555</v>
+        <v>196.9549915739557</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392916</v>
+        <v>95.79765189392926</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399192</v>
+        <v>28.65944163399194</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989039</v>
+        <v>6.219132670989045</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730529</v>
+        <v>0.101509238373053</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141854</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5008302990794</v>
+        <v>11.50083029907941</v>
       </c>
       <c r="I7" t="n">
-        <v>38.9005589257205</v>
+        <v>38.90055892572054</v>
       </c>
       <c r="J7" t="n">
-        <v>91.4539440040291</v>
+        <v>91.45394400402918</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401172</v>
+        <v>150.2869235401174</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545444</v>
+        <v>192.3155201545446</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773272</v>
+        <v>202.7697513773274</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022532</v>
+        <v>197.9483399022534</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669596</v>
+        <v>182.8373307669598</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960657</v>
+        <v>156.4489225960658</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266056</v>
+        <v>108.3171246266057</v>
       </c>
       <c r="R7" t="n">
-        <v>58.162685745651</v>
+        <v>58.16268574565105</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101758</v>
+        <v>22.5430385310176</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060648</v>
+        <v>5.526983886060654</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864668</v>
+        <v>0.07055724109864675</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.83313060186914</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639234</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203913</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975121</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544649</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954552</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118016</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956796</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620352</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825965</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696626</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968217</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495311</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469203</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193135</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598377</v>
+        <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>171.3336650206139</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821474</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
-        <v>672.56323703405</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924469</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383441</v>
+        <v>221.1347650368273</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047537</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627649</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798448</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329024</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806236</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493062</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811702</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493536</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377476</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>687.0167715190033</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32549,31 +32549,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>752.2150000824574</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>169.6252075171348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>548.8125296967487</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,19 +33500,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>752.2150000824574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>752.2150000824574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>548.8125296967487</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>362.5355639238077</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900668</v>
+        <v>63.70847814900691</v>
       </c>
       <c r="K5" t="n">
-        <v>146.733522557378</v>
+        <v>146.7335225573783</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252591</v>
+        <v>219.3104167252595</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518405</v>
+        <v>276.014425951841</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318111</v>
+        <v>285.1410404318115</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757908</v>
+        <v>255.7806379757913</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010066</v>
+        <v>183.453361001007</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243822</v>
+        <v>89.1064940124385</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.9364069195955</v>
+        <v>18.93640691959564</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710203</v>
+        <v>342.9474802368773</v>
       </c>
       <c r="L6" t="n">
-        <v>205.0696333191516</v>
+        <v>196.4599432639918</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653994</v>
+        <v>248.8118794653997</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355776</v>
+        <v>269.9513763355781</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904223</v>
+        <v>224.5085324904226</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6877278154299</v>
+        <v>160.6595406047352</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793394</v>
+        <v>56.97321748793414</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142344</v>
+        <v>128.0174317142345</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148606</v>
+        <v>219.9055454148608</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391678</v>
+        <v>242.353628339168</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814818</v>
+        <v>242.080512281482</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809993</v>
+        <v>207.4224586809995</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609592</v>
+        <v>153.7274818609593</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491126</v>
+        <v>22.15508137491136</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35264,10 +35264,10 @@
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>420.36654787987</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.160013893705</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525316</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844776</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681825</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214251</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739929</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067656</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081469</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553051</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526468</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854787</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>32.77928524073967</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>513.087440360129</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507167</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480024</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240139</v>
+        <v>87.16035762249703</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187322</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186264</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388466</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141997</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776297</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
@@ -35960,13 +35960,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>544.4205270745589</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>620.8732879991242</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010452</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.94570355317081</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>414.8381222824185</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>620.8732879991242</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>620.8732879991242</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>414.8381222824185</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>222.5537898377862</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
